--- a/pred_ohlcv/54_21/2020-01-20 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HYC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-905770.5375</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1024951.6051</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1024951.6051</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1024427.605</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1155715.6135</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1155454.6135</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1155454.6135</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1169322.1241</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1168282.1241</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1337027.1892</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1336765.1892</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1236504.1892</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1236504.1892</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1253680.4662</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1219591.5088</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1212991.5088</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1253983.9362</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1238428.2138</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1257518.1951</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1257518.1951</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1237626.537</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1237626.537</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1283545.8009</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1264648.7256</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1271724.3355</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1281824.5795</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1281563.5795</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1299009.9252</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1256535.9315</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1363187.9695</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1363187.9695</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1308942.0611</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1336180.5041</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1323995.5319</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1374744.7008</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1264929.3681</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1277651.9833</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1277390.9833</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1343189.3289</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2749340.3634</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3120383.9558</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-6283551.8792</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-6563551.8792</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-7105099.3191</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-7045000.573</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8843133.7784</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8675523.7784</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8445679.482900001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8445679.482900001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8442102.482900001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8444905.482900001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8136220.060400003</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8171574.556300003</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-7967736.202700003</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-7943616.202700003</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-7875518.022000003</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-7875518.022000003</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7842541.886400003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7874085.157200003</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-8801961.719700003</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HYC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-905770.5375</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1024951.6051</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1024951.6051</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1024689.6051</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1100108.8745</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1100108.8745</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1024427.605</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1155715.6135</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1155454.6135</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1155454.6135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1169322.1241</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1168282.1241</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1337027.1892</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1336765.1892</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1236504.1892</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1236504.1892</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1253680.4662</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1219591.5088</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1212991.5088</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1253983.9362</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1238428.2138</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1257518.1951</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1257518.1951</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1237626.537</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1237626.537</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1283545.8009</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1264648.7256</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1271724.3355</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1281824.5795</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1281563.5795</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1299009.9252</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1276346.5351</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1256535.9315</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1363187.9695</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1363187.9695</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1308942.0611</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1314785.2223</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1336180.5041</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1323995.5319</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1374744.7008</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1264929.3681</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1277651.9833</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1277390.9833</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1343189.3289</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2749340.3634</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3120383.9558</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3120383.9558</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8675523.7784</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8445679.482900001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8445679.482900001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8442102.482900001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8444905.482900001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8447571.551000001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8457322.443300001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8462183.073400002</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8203742.135200002</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8171574.556300003</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7842541.886400003</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7874085.157200003</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8259987.516200003</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-8369776.402200003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-8244617.943100004</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8244617.943100004</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8566914.719700003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8806914.719700003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-8801961.719700003</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-8801961.719700003</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
